--- a/PopulationOfAsia.xlsx
+++ b/PopulationOfAsia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-pc\FIT3179\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9767BC51-29E0-47ED-956C-14F48D468E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82EAE4B-7895-4A98-A97D-D6D9AEC721E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{AC8E1E14-E726-44EB-B198-CFA61BCD912C}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Country (or dependency)</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>Brunei</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -347,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -417,6 +417,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -735,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743A61C2-7D6B-4AEA-9A15-35939E836B30}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -744,42 +759,42 @@
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -787,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3">
         <v>1439323776</v>
@@ -816,8 +831,8 @@
       <c r="K2" s="6">
         <v>0.61</v>
       </c>
-      <c r="L2" s="4">
-        <v>0.1847</v>
+      <c r="L2" s="27">
+        <v>18.47</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -825,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9">
         <v>1380004385</v>
@@ -854,8 +869,8 @@
       <c r="K3" s="12">
         <v>0.35</v>
       </c>
-      <c r="L3" s="10">
-        <v>0.17699999999999999</v>
+      <c r="L3" s="28">
+        <v>17.7</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -863,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>273523615</v>
@@ -892,8 +907,8 @@
       <c r="K4" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L4" s="4">
-        <v>3.5099999999999999E-2</v>
+      <c r="L4" s="27">
+        <v>3.51</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -901,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9">
         <v>220892340</v>
@@ -930,8 +945,8 @@
       <c r="K5" s="12">
         <v>0.35</v>
       </c>
-      <c r="L5" s="10">
-        <v>2.8299999999999999E-2</v>
+      <c r="L5" s="25">
+        <v>2.83</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -939,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>164689383</v>
@@ -968,8 +983,8 @@
       <c r="K6" s="6">
         <v>0.39</v>
       </c>
-      <c r="L6" s="4">
-        <v>2.1100000000000001E-2</v>
+      <c r="L6" s="24">
+        <v>2.11</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -977,7 +992,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9">
         <v>126476461</v>
@@ -1006,8 +1021,8 @@
       <c r="K7" s="12">
         <v>0.92</v>
       </c>
-      <c r="L7" s="10">
-        <v>1.6199999999999999E-2</v>
+      <c r="L7" s="25">
+        <v>1.62</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1015,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>109581078</v>
@@ -1044,8 +1059,8 @@
       <c r="K8" s="6">
         <v>0.47</v>
       </c>
-      <c r="L8" s="4">
-        <v>1.41E-2</v>
+      <c r="L8" s="27">
+        <v>1.41</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1053,7 +1068,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9">
         <v>97338579</v>
@@ -1082,8 +1097,8 @@
       <c r="K9" s="12">
         <v>0.38</v>
       </c>
-      <c r="L9" s="10">
-        <v>1.2500000000000001E-2</v>
+      <c r="L9" s="28">
+        <v>1.25</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1091,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>84339067</v>
@@ -1120,8 +1135,8 @@
       <c r="K10" s="6">
         <v>0.76</v>
       </c>
-      <c r="L10" s="4">
-        <v>1.0800000000000001E-2</v>
+      <c r="L10" s="27">
+        <v>1.08</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1129,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>83992949</v>
@@ -1158,8 +1173,8 @@
       <c r="K11" s="12">
         <v>0.76</v>
       </c>
-      <c r="L11" s="10">
-        <v>1.0800000000000001E-2</v>
+      <c r="L11" s="28">
+        <v>1.08</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1167,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
         <v>69799978</v>
@@ -1196,8 +1211,8 @@
       <c r="K12" s="6">
         <v>0.51</v>
       </c>
-      <c r="L12" s="4">
-        <v>8.9999999999999993E-3</v>
+      <c r="L12" s="27">
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1205,7 +1220,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9">
         <v>54409800</v>
@@ -1234,8 +1249,8 @@
       <c r="K13" s="12">
         <v>0.31</v>
       </c>
-      <c r="L13" s="10">
-        <v>7.0000000000000001E-3</v>
+      <c r="L13" s="28">
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1243,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3">
         <v>51269185</v>
@@ -1272,8 +1287,8 @@
       <c r="K14" s="6">
         <v>0.82</v>
       </c>
-      <c r="L14" s="4">
-        <v>6.6E-3</v>
+      <c r="L14" s="27">
+        <v>0.66</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1281,7 +1296,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9">
         <v>40222493</v>
@@ -1310,8 +1325,8 @@
       <c r="K15" s="12">
         <v>0.73</v>
       </c>
-      <c r="L15" s="10">
-        <v>5.1999999999999998E-3</v>
+      <c r="L15" s="28">
+        <v>0.52</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1319,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
         <v>38928346</v>
@@ -1348,16 +1363,16 @@
       <c r="K16" s="6">
         <v>0.25</v>
       </c>
-      <c r="L16" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L16" s="27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="9">
         <v>34813871</v>
@@ -1386,8 +1401,8 @@
       <c r="K17" s="12">
         <v>0.84</v>
       </c>
-      <c r="L17" s="10">
-        <v>4.4999999999999997E-3</v>
+      <c r="L17" s="28">
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1395,7 +1410,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3">
         <v>33469203</v>
@@ -1424,8 +1439,8 @@
       <c r="K18" s="6">
         <v>0.5</v>
       </c>
-      <c r="L18" s="4">
-        <v>4.3E-3</v>
+      <c r="L18" s="27">
+        <v>0.43</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1433,7 +1448,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="9">
         <v>32365999</v>
@@ -1462,8 +1477,8 @@
       <c r="K19" s="12">
         <v>0.78</v>
       </c>
-      <c r="L19" s="10">
-        <v>4.1999999999999997E-3</v>
+      <c r="L19" s="28">
+        <v>0.42</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1471,7 +1486,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3">
         <v>29825964</v>
@@ -1500,8 +1515,8 @@
       <c r="K20" s="6">
         <v>0.38</v>
       </c>
-      <c r="L20" s="4">
-        <v>3.8E-3</v>
+      <c r="L20" s="27">
+        <v>0.38</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1509,7 +1524,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="9">
         <v>29136808</v>
@@ -1538,8 +1553,8 @@
       <c r="K21" s="12">
         <v>0.21</v>
       </c>
-      <c r="L21" s="10">
-        <v>3.7000000000000002E-3</v>
+      <c r="L21" s="28">
+        <v>0.37</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1547,7 +1562,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3">
         <v>25778816</v>
@@ -1576,8 +1591,8 @@
       <c r="K22" s="6">
         <v>0.63</v>
       </c>
-      <c r="L22" s="4">
-        <v>3.3E-3</v>
+      <c r="L22" s="27">
+        <v>0.33</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1585,7 +1600,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="9">
         <v>23816775</v>
@@ -1614,8 +1629,8 @@
       <c r="K23" s="12">
         <v>0.79</v>
       </c>
-      <c r="L23" s="10">
-        <v>3.0999999999999999E-3</v>
+      <c r="L23" s="28">
+        <v>0.31</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1623,7 +1638,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3">
         <v>21413249</v>
@@ -1652,8 +1667,8 @@
       <c r="K24" s="6">
         <v>0.18</v>
       </c>
-      <c r="L24" s="4">
-        <v>2.7000000000000001E-3</v>
+      <c r="L24" s="27">
+        <v>0.27</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1661,7 +1676,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="9">
         <v>18776707</v>
@@ -1690,8 +1705,8 @@
       <c r="K25" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L25" s="10">
-        <v>2.3999999999999998E-3</v>
+      <c r="L25" s="28">
+        <v>0.24</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1699,7 +1714,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3">
         <v>17500658</v>
@@ -1728,8 +1743,8 @@
       <c r="K26" s="6">
         <v>0.6</v>
       </c>
-      <c r="L26" s="4">
-        <v>2.2000000000000001E-3</v>
+      <c r="L26" s="27">
+        <v>0.22</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1737,7 +1752,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="9">
         <v>16718965</v>
@@ -1766,8 +1781,8 @@
       <c r="K27" s="12">
         <v>0.24</v>
       </c>
-      <c r="L27" s="10">
-        <v>2.0999999999999999E-3</v>
+      <c r="L27" s="28">
+        <v>0.21</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1775,7 +1790,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3">
         <v>10203134</v>
@@ -1804,8 +1819,8 @@
       <c r="K28" s="6">
         <v>0.91</v>
       </c>
-      <c r="L28" s="4">
-        <v>1.2999999999999999E-3</v>
+      <c r="L28" s="27">
+        <v>0.13</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1813,7 +1828,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="9">
         <v>10139177</v>
@@ -1842,8 +1857,8 @@
       <c r="K29" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L29" s="10">
-        <v>1.2999999999999999E-3</v>
+      <c r="L29" s="28">
+        <v>0.13</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -1851,7 +1866,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="3">
         <v>9890402</v>
@@ -1880,8 +1895,8 @@
       <c r="K30" s="6">
         <v>0.86</v>
       </c>
-      <c r="L30" s="4">
-        <v>1.2999999999999999E-3</v>
+      <c r="L30" s="27">
+        <v>0.13</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1889,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="9">
         <v>9537645</v>
@@ -1918,8 +1933,8 @@
       <c r="K31" s="12">
         <v>0.27</v>
       </c>
-      <c r="L31" s="10">
-        <v>1.1999999999999999E-3</v>
+      <c r="L31" s="28">
+        <v>0.12</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1927,7 +1942,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3">
         <v>8655535</v>
@@ -1956,8 +1971,8 @@
       <c r="K32" s="6">
         <v>0.93</v>
       </c>
-      <c r="L32" s="4">
-        <v>1.1000000000000001E-3</v>
+      <c r="L32" s="27">
+        <v>0.11</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1965,7 +1980,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="9">
         <v>7496981</v>
@@ -1992,10 +2007,10 @@
         <v>45</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="10">
-        <v>1E-3</v>
+        <v>43</v>
+      </c>
+      <c r="L33" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2003,7 +2018,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3">
         <v>7275560</v>
@@ -2032,8 +2047,8 @@
       <c r="K34" s="6">
         <v>0.36</v>
       </c>
-      <c r="L34" s="4">
-        <v>8.9999999999999998E-4</v>
+      <c r="L34" s="24">
+        <v>0.09</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2041,7 +2056,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="9">
         <v>6825445</v>
@@ -2070,8 +2085,8 @@
       <c r="K35" s="12">
         <v>0.78</v>
       </c>
-      <c r="L35" s="10">
-        <v>8.9999999999999998E-4</v>
+      <c r="L35" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2079,7 +2094,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="3">
         <v>6524195</v>
@@ -2108,8 +2123,8 @@
       <c r="K36" s="6">
         <v>0.36</v>
       </c>
-      <c r="L36" s="4">
-        <v>8.0000000000000004E-4</v>
+      <c r="L36" s="27">
+        <v>0.08</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2117,7 +2132,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="9">
         <v>6031200</v>
@@ -2146,8 +2161,8 @@
       <c r="K37" s="12">
         <v>0.53</v>
       </c>
-      <c r="L37" s="10">
-        <v>8.0000000000000004E-4</v>
+      <c r="L37" s="28">
+        <v>0.08</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2155,7 +2170,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3">
         <v>5850342</v>
@@ -2182,10 +2197,10 @@
         <v>42</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" s="4">
-        <v>8.0000000000000004E-4</v>
+        <v>43</v>
+      </c>
+      <c r="L38" s="27">
+        <v>0.08</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2193,7 +2208,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="9">
         <v>5101414</v>
@@ -2222,8 +2237,8 @@
       <c r="K39" s="12">
         <v>0.8</v>
       </c>
-      <c r="L39" s="10">
-        <v>6.9999999999999999E-4</v>
+      <c r="L39" s="28">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2231,7 +2246,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="3">
         <v>5106626</v>
@@ -2260,8 +2275,8 @@
       <c r="K40" s="6">
         <v>0.87</v>
       </c>
-      <c r="L40" s="4">
-        <v>6.9999999999999999E-4</v>
+      <c r="L40" s="27">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2269,7 +2284,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="9">
         <v>4270571</v>
@@ -2296,9 +2311,9 @@
         <v>37</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" s="10">
+        <v>43</v>
+      </c>
+      <c r="L41" s="25">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -2307,7 +2322,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="3">
         <v>3989167</v>
@@ -2336,7 +2351,7 @@
       <c r="K42" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -2345,7 +2360,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="9">
         <v>3278290</v>
@@ -2374,7 +2389,7 @@
       <c r="K43" s="12">
         <v>0.67</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="25">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -2383,7 +2398,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="3">
         <v>2963243</v>
@@ -2412,7 +2427,7 @@
       <c r="K44" s="6">
         <v>0.63</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="24">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -2421,7 +2436,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="9">
         <v>2881053</v>
@@ -2450,7 +2465,7 @@
       <c r="K45" s="12">
         <v>0.96</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="25">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -2459,7 +2474,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="3">
         <v>1701575</v>
@@ -2488,7 +2503,7 @@
       <c r="K46" s="6">
         <v>0.89</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="24">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
@@ -2497,7 +2512,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="9">
         <v>1318445</v>
@@ -2526,7 +2541,7 @@
       <c r="K47" s="12">
         <v>0.33</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="25">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
@@ -2535,7 +2550,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="3">
         <v>1207359</v>
@@ -2564,7 +2579,7 @@
       <c r="K48" s="6">
         <v>0.67</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="24">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
@@ -2573,7 +2588,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="9">
         <v>771608</v>
@@ -2602,7 +2617,7 @@
       <c r="K49" s="12">
         <v>0.46</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="25">
         <v>1E-4</v>
       </c>
     </row>
@@ -2611,7 +2626,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="3">
         <v>649335</v>
@@ -2638,9 +2653,9 @@
         <v>39</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L50" s="4">
+        <v>43</v>
+      </c>
+      <c r="L50" s="24">
         <v>1E-4</v>
       </c>
     </row>
@@ -2649,7 +2664,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="9">
         <v>540544</v>
@@ -2678,7 +2693,7 @@
       <c r="K51" s="12">
         <v>0.35</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="25">
         <v>1E-4</v>
       </c>
     </row>
@@ -2687,7 +2702,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="18">
         <v>437479</v>
@@ -2716,7 +2731,7 @@
       <c r="K52" s="22">
         <v>0.8</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L52" s="26">
         <v>1E-4</v>
       </c>
     </row>
